--- a/database.xlsx
+++ b/database.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2292,6 +2292,1746 @@
       </c>
       <c r="G64" t="n">
         <v>0.0124</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.864648691734976</v>
+      </c>
+      <c r="F65" t="n">
+        <v>62.45518040874277</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0138</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="F66" t="n">
+        <v>58.869</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0153</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="F67" t="n">
+        <v>68.40300000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0131</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.8341855434410133</v>
+      </c>
+      <c r="F68" t="n">
+        <v>60.63528158106536</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0138</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="F69" t="n">
+        <v>67.13200000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="F70" t="n">
+        <v>67.596</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0133</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.8703429826429711</v>
+      </c>
+      <c r="F71" t="n">
+        <v>62.29045888651454</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F72" t="n">
+        <v>63.197</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F73" t="n">
+        <v>63.384</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.854660136247857</v>
+      </c>
+      <c r="F74" t="n">
+        <v>61.5939379939604</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F75" t="n">
+        <v>71.77500000000001</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0124</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="F76" t="n">
+        <v>66.877</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0132</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.880743764669999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>62.43714126810984</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F78" t="n">
+        <v>63.614</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="F79" t="n">
+        <v>68.997</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0133</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8265236390748338</v>
+      </c>
+      <c r="F80" t="n">
+        <v>60.14963611964723</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="F81" t="n">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0129</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="F82" t="n">
+        <v>60.604</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.8391419375934881</v>
+      </c>
+      <c r="F83" t="n">
+        <v>61.28447061250061</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F84" t="n">
+        <v>57.741</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0152</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F85" t="n">
+        <v>62.105</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8034162907544126</v>
+      </c>
+      <c r="F86" t="n">
+        <v>58.57470487803447</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="F87" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0121</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F88" t="n">
+        <v>58.898</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8739811774563389</v>
+      </c>
+      <c r="F89" t="n">
+        <v>62.5253063224447</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="F90" t="n">
+        <v>58.617</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0156</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F91" t="n">
+        <v>58.807</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0156</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8602955469980265</v>
+      </c>
+      <c r="F92" t="n">
+        <v>61.39126066209045</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="F93" t="n">
+        <v>56.921</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0153</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="F94" t="n">
+        <v>61.978</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8997793162141487</v>
+      </c>
+      <c r="F95" t="n">
+        <v>70.32536515513246</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0128</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="F96" t="n">
+        <v>71.001</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0133</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="F97" t="n">
+        <v>64.569</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8348416433600085</v>
+      </c>
+      <c r="F98" t="n">
+        <v>60.41533429961776</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0138</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F99" t="n">
+        <v>61.671</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="F100" t="n">
+        <v>55.816</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0152</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.8944404548448874</v>
+      </c>
+      <c r="F101" t="n">
+        <v>62.25332895061595</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F102" t="n">
+        <v>63.734</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F103" t="n">
+        <v>59.308</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0161</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.8569908077987125</v>
+      </c>
+      <c r="F104" t="n">
+        <v>67.55348449394324</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0127</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F105" t="n">
+        <v>64.255</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="F106" t="n">
+        <v>59.348</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0151</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9027174858324875</v>
+      </c>
+      <c r="F107" t="n">
+        <v>69.6044996524145</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F108" t="n">
+        <v>64.075</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0143</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="F109" t="n">
+        <v>65.691</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.9017510340652027</v>
+      </c>
+      <c r="F110" t="n">
+        <v>61.82340047140455</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0146</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="F111" t="n">
+        <v>57.955</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0159</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="F112" t="n">
+        <v>58.301</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0159</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.8437717642485375</v>
+      </c>
+      <c r="F113" t="n">
+        <v>60.89115038450172</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F114" t="n">
+        <v>58.143</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="F115" t="n">
+        <v>63.098</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.9153766823870374</v>
+      </c>
+      <c r="F116" t="n">
+        <v>63.97381276353127</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0143</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="F117" t="n">
+        <v>59.723</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0155</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="F118" t="n">
+        <v>54.198</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0171</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.8740561470712418</v>
+      </c>
+      <c r="F119" t="n">
+        <v>62.04468626132863</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="F120" t="n">
+        <v>63.486</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="F121" t="n">
+        <v>67.736</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.8565895077215273</v>
+      </c>
+      <c r="F122" t="n">
+        <v>68.94069015958553</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0124</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="F123" t="n">
+        <v>69.846</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0129</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="F124" t="n">
+        <v>74.88200000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0119</v>
       </c>
     </row>
   </sheetData>
@@ -2305,7 +4045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4170,6 +5910,1746 @@
       </c>
       <c r="G64" t="n">
         <v>0.0313</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6235023588338774</v>
+      </c>
+      <c r="F65" t="n">
+        <v>19.55609188587849</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0319</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25.239</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0281</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20.122</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0304</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6832609112913498</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20.50856186973543</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0333</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>24.181</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0289</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20.653</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0325</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6155625322916634</v>
+      </c>
+      <c r="F71" t="n">
+        <v>19.38050998040833</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0318</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F72" t="n">
+        <v>23.278</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0289</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F73" t="n">
+        <v>19.539</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6045876956828418</v>
+      </c>
+      <c r="F74" t="n">
+        <v>19.3208849385524</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20.251</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20.218</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.6124112914185678</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20.00839028346752</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0306</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F78" t="n">
+        <v>24.736</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0287</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6146790543809584</v>
+      </c>
+      <c r="F80" t="n">
+        <v>19.3672879103115</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="F81" t="n">
+        <v>23.134</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F82" t="n">
+        <v>19.367</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0318</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6542001263949436</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20.30223270946585</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F84" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0289</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20.924</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6251411936352875</v>
+      </c>
+      <c r="F86" t="n">
+        <v>19.11677182798109</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0327</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F87" t="n">
+        <v>22.548</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0273</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="F88" t="n">
+        <v>19.406</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6359449307137264</v>
+      </c>
+      <c r="F89" t="n">
+        <v>19.84607384714533</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F90" t="n">
+        <v>25.549</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20.288</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0306</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5916469655785053</v>
+      </c>
+      <c r="F92" t="n">
+        <v>18.97134428226036</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="F93" t="n">
+        <v>22.894</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0285</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="F94" t="n">
+        <v>19.291</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0311</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.593536197746604</v>
+      </c>
+      <c r="F95" t="n">
+        <v>21.37577196895772</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="F96" t="n">
+        <v>25.515</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0259</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F97" t="n">
+        <v>25.009</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0256</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6342963807780528</v>
+      </c>
+      <c r="F98" t="n">
+        <v>19.55326386240364</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0324</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="F99" t="n">
+        <v>23.221</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0286</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19.773</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.709799527376915</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21.34569591039433</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0333</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="F102" t="n">
+        <v>25.331</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0295</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F103" t="n">
+        <v>21.441</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0324</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.587182361752622</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21.1163623592565</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F105" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0268</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F106" t="n">
+        <v>25.242</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0262</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.672878517869547</v>
+      </c>
+      <c r="F107" t="n">
+        <v>22.53402049599909</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0299</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="F108" t="n">
+        <v>26.266</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0248</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="F109" t="n">
+        <v>25.715</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0274</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.6005975102860232</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19.54514321098007</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F111" t="n">
+        <v>24.446</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0274</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="F112" t="n">
+        <v>20.644</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0302</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6034152912342432</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19.1916185276125</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>23.151</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0297</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19.407</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6472183536096333</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20.65237281774902</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>22.239</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="F118" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6220763179402862</v>
+      </c>
+      <c r="F119" t="n">
+        <v>19.44180100186878</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F120" t="n">
+        <v>23.339</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0294</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="F121" t="n">
+        <v>19.749</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.6135959005702057</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22.06036519753726</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0255</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="F124" t="n">
+        <v>25.799</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0263</v>
       </c>
     </row>
   </sheetData>
@@ -4183,7 +7663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6050,6 +9530,1746 @@
         <v>0.0313</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6235023588338774</v>
+      </c>
+      <c r="F65" t="n">
+        <v>19.55609188587849</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0319</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="F66" t="n">
+        <v>25.398</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="F67" t="n">
+        <v>21.418</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0311</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6832609112913498</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20.50856186973543</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0333</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="F69" t="n">
+        <v>24.289</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0293</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20.655</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0325</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6155625322916634</v>
+      </c>
+      <c r="F71" t="n">
+        <v>19.38050998040833</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0318</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F72" t="n">
+        <v>23.278</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0289</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F73" t="n">
+        <v>19.539</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6401531865029032</v>
+      </c>
+      <c r="F74" t="n">
+        <v>20.23037587754335</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20.251</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20.245</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.6554631347369456</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20.87239627206297</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="F78" t="n">
+        <v>25.852</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0298</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20.872</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6171494755355967</v>
+      </c>
+      <c r="F80" t="n">
+        <v>19.43279438367748</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0318</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="F81" t="n">
+        <v>23.235</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0287</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F82" t="n">
+        <v>19.367</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0318</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.673387146603406</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20.92396611804143</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="F84" t="n">
+        <v>24.988</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0292</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20.924</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6251411936352875</v>
+      </c>
+      <c r="F86" t="n">
+        <v>19.11677182798109</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0327</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F87" t="n">
+        <v>22.934</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0297</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="F88" t="n">
+        <v>19.512</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0321</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.6359449307137264</v>
+      </c>
+      <c r="F89" t="n">
+        <v>19.84607384714533</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="F90" t="n">
+        <v>26.767</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0293</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20.292</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5916469655785053</v>
+      </c>
+      <c r="F92" t="n">
+        <v>18.97134428226036</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="F93" t="n">
+        <v>25.226</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0289</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="F94" t="n">
+        <v>19.291</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0311</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.593536197746604</v>
+      </c>
+      <c r="F95" t="n">
+        <v>21.37577196895772</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="F96" t="n">
+        <v>26.165</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0265</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F97" t="n">
+        <v>25.666</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0268</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6342963807780528</v>
+      </c>
+      <c r="F98" t="n">
+        <v>19.55326386240364</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0324</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="F99" t="n">
+        <v>24.473</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0287</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19.773</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.709799527376915</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21.34569591039433</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0333</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="F102" t="n">
+        <v>25.452</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.0309</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="F103" t="n">
+        <v>21.467</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0325</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.587182361752622</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21.1163623592565</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F105" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0268</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F106" t="n">
+        <v>26.419</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.0274</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.672878517869547</v>
+      </c>
+      <c r="F107" t="n">
+        <v>22.53402049599909</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.0299</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="F108" t="n">
+        <v>27.143</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.0257</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="F109" t="n">
+        <v>25.715</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0274</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.8032323349349623</v>
+      </c>
+      <c r="F110" t="n">
+        <v>25.90139417806519</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F112" t="n">
+        <v>22.292</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0318</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6034152912342432</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19.1916185276125</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>23.151</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0297</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19.774</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6472183536096333</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20.65237281774902</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="F117" t="n">
+        <v>22.239</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F118" t="n">
+        <v>22.782</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.6220763179402862</v>
+      </c>
+      <c r="F119" t="n">
+        <v>19.44180100186878</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="F120" t="n">
+        <v>23.591</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0303</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="F121" t="n">
+        <v>19.749</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.6135959005702057</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22.06036519753726</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.0278</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>26.235</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.0263</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>25.864</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database.xlsx
+++ b/database.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4032,6 +4032,2616 @@
       </c>
       <c r="G124" t="n">
         <v>0.0119</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.8243188263756158</v>
+      </c>
+      <c r="F125" t="n">
+        <v>78.92393659349266</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0104</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F126" t="n">
+        <v>77.072</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0113</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="F127" t="n">
+        <v>75.76000000000001</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0113</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.8532381844355428</v>
+      </c>
+      <c r="F128" t="n">
+        <v>60.59111574808707</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="F129" t="n">
+        <v>55.669</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="F130" t="n">
+        <v>65.29300000000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0134</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.7807028497885303</v>
+      </c>
+      <c r="F131" t="n">
+        <v>71.97968292973341</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.0108</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="F132" t="n">
+        <v>87.18000000000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0095</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>76.958</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0105</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.9164191075251412</v>
+      </c>
+      <c r="F134" t="n">
+        <v>63.35928924430415</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>64.279</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0146</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>68.971</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.8318854888887205</v>
+      </c>
+      <c r="F137" t="n">
+        <v>45.18805570906433</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0184</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="F138" t="n">
+        <v>57.054</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.0153</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F139" t="n">
+        <v>61.588</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.8986413458842291</v>
+      </c>
+      <c r="F140" t="n">
+        <v>63.14946343150144</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>64.128</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0146</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>59.955</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.0156</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.8055712045122185</v>
+      </c>
+      <c r="F143" t="n">
+        <v>66.51798178888826</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.0121</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="F144" t="n">
+        <v>62.536</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.0134</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="F145" t="n">
+        <v>62.184</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.8915722503879123</v>
+      </c>
+      <c r="F146" t="n">
+        <v>61.65716018356134</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="F147" t="n">
+        <v>54.649</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0171</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="F148" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0172</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.8521877959360658</v>
+      </c>
+      <c r="F149" t="n">
+        <v>61.34062958622393</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F150" t="n">
+        <v>61.796</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F151" t="n">
+        <v>61.935</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.8134154271093401</v>
+      </c>
+      <c r="F152" t="n">
+        <v>60.12861193301652</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="F153" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="F154" t="n">
+        <v>70.495</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0121</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.8303567145512782</v>
+      </c>
+      <c r="F155" t="n">
+        <v>67.79493090693256</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0122</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="F156" t="n">
+        <v>64.729</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="F157" t="n">
+        <v>64.18899999999999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.8579029031193405</v>
+      </c>
+      <c r="F158" t="n">
+        <v>67.89139484393661</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="F159" t="n">
+        <v>63.421</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="F160" t="n">
+        <v>63.305</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.930484986544567</v>
+      </c>
+      <c r="F161" t="n">
+        <v>63.13371799469388</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.0147</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="F162" t="n">
+        <v>54.507</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0174</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="F163" t="n">
+        <v>54.871</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.0173</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.7922435460394187</v>
+      </c>
+      <c r="F164" t="n">
+        <v>72.22810899932817</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="F165" t="n">
+        <v>60.611</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="F166" t="n">
+        <v>80.211</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.0107</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.8795421331843924</v>
+      </c>
+      <c r="F167" t="n">
+        <v>68.08367550485616</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.0129</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="F168" t="n">
+        <v>65.229</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="F169" t="n">
+        <v>75.45</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.0123</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.9713406898261299</v>
+      </c>
+      <c r="F170" t="n">
+        <v>64.76250346701627</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="F171" t="n">
+        <v>50.234</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0195</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="F172" t="n">
+        <v>50.935</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0192</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.7996321946440165</v>
+      </c>
+      <c r="F173" t="n">
+        <v>66.15222048245836</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.0121</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="F174" t="n">
+        <v>64.346</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0134</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="F175" t="n">
+        <v>59.202</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.0146</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.8509045088354988</v>
+      </c>
+      <c r="F176" t="n">
+        <v>60.9592153311895</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="F177" t="n">
+        <v>61.232</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="F178" t="n">
+        <v>61.381</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.9437482822485299</v>
+      </c>
+      <c r="F179" t="n">
+        <v>69.8691299271116</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="F180" t="n">
+        <v>66.447</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="F181" t="n">
+        <v>70.38</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.8374682857515408</v>
+      </c>
+      <c r="F182" t="n">
+        <v>60.0305568789443</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="F183" t="n">
+        <v>65.907</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0132</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="F184" t="n">
+        <v>60.879</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.8653198015767916</v>
+      </c>
+      <c r="F185" t="n">
+        <v>61.22534382207085</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="F186" t="n">
+        <v>61.825</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="F187" t="n">
+        <v>62.317</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0144</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.9061516349339016</v>
+      </c>
+      <c r="F188" t="n">
+        <v>62.39017695725179</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="F189" t="n">
+        <v>53.557</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0173</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="F190" t="n">
+        <v>58.127</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0159</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.8603065420626055</v>
+      </c>
+      <c r="F191" t="n">
+        <v>62.19022125508059</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0138</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F192" t="n">
+        <v>52.417</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.0166</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="F193" t="n">
+        <v>62.778</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.8908930389183022</v>
+      </c>
+      <c r="F194" t="n">
+        <v>69.49419197719006</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.0128</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="F195" t="n">
+        <v>68.65900000000001</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0133</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="F196" t="n">
+        <v>73.54000000000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0123</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.789359969980294</v>
+      </c>
+      <c r="F197" t="n">
+        <v>57.45934282207286</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0137</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="F198" t="n">
+        <v>75.57899999999999</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.0114</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="F199" t="n">
+        <v>60.589</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.7652844683947763</v>
+      </c>
+      <c r="F200" t="n">
+        <v>56.82707851527834</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F201" t="n">
+        <v>68.01900000000001</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.0121</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F202" t="n">
+        <v>68.544</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.8197691015473594</v>
+      </c>
+      <c r="F203" t="n">
+        <v>59.46872572334537</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0138</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="F204" t="n">
+        <v>60.424</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="F205" t="n">
+        <v>60.059</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.8644369037787707</v>
+      </c>
+      <c r="F206" t="n">
+        <v>61.24053171748731</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="F207" t="n">
+        <v>66.682</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="F208" t="n">
+        <v>62.647</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0142</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.9014839138644865</v>
+      </c>
+      <c r="F209" t="n">
+        <v>61.95535354997153</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.0146</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="F210" t="n">
+        <v>67.508</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.0135</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F211" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.0146</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.8965501073656297</v>
+      </c>
+      <c r="F212" t="n">
+        <v>61.95235382966515</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="F213" t="n">
+        <v>49.331</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.0188</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="F214" t="n">
+        <v>58.987</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.0157</v>
       </c>
     </row>
   </sheetData>
@@ -4045,7 +6655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7650,6 +10260,2612 @@
       </c>
       <c r="G124" t="n">
         <v>0.0263</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5392181686069</v>
+      </c>
+      <c r="F125" t="n">
+        <v>26.11711652477197</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0206</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="F126" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0181</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="F127" t="n">
+        <v>27.593</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0202</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5907241495503426</v>
+      </c>
+      <c r="F128" t="n">
+        <v>18.85181101468588</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22.446</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0298</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18.975</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.581741730973459</v>
+      </c>
+      <c r="F131" t="n">
+        <v>24.69220587951938</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.0236</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F132" t="n">
+        <v>24.979</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0228</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F133" t="n">
+        <v>24.646</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0225</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.6596664457669242</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20.68448731811489</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.0319</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="F135" t="n">
+        <v>25.433</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0277</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>21.622</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0321</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.6310136862758672</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19.33501843615056</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0326</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22.707</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F139" t="n">
+        <v>19.396</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6985108923712158</v>
+      </c>
+      <c r="F140" t="n">
+        <v>21.14003293301068</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24.893</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0284</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21.385</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.0324</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.6361299052745447</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21.7380679862772</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.0293</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="F145" t="n">
+        <v>24.832</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0257</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.6090837569362275</v>
+      </c>
+      <c r="F146" t="n">
+        <v>19.40157809922792</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F147" t="n">
+        <v>23.507</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0306</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="F148" t="n">
+        <v>19.651</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0306</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.6175641872606431</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19.56410779990735</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F150" t="n">
+        <v>24.407</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="F151" t="n">
+        <v>20.299</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0311</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.636630255055756</v>
+      </c>
+      <c r="F152" t="n">
+        <v>19.23908396728126</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0331</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22.452</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="F154" t="n">
+        <v>19.282</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.6071352524954821</v>
+      </c>
+      <c r="F155" t="n">
+        <v>21.92529986421925</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0277</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F156" t="n">
+        <v>26.544</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0254</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="F157" t="n">
+        <v>25.726</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.0255</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.5570304735037701</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20.39039941359391</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.0273</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="F159" t="n">
+        <v>26.323</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.0246</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="F160" t="n">
+        <v>23.805</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.0263</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.6069658795431836</v>
+      </c>
+      <c r="F161" t="n">
+        <v>19.97109877539818</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.0304</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="F162" t="n">
+        <v>25.254</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0299</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6211655164056956</v>
+      </c>
+      <c r="F164" t="n">
+        <v>25.11611975610649</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.0247</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="F165" t="n">
+        <v>25.689</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.0214</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="F166" t="n">
+        <v>25.444</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.0228</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.5831504398313195</v>
+      </c>
+      <c r="F167" t="n">
+        <v>20.85089462014086</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F168" t="n">
+        <v>24.917</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.0253</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="F169" t="n">
+        <v>24.562</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.0261</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.7295203343801877</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22.03137425881699</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.0331</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22.754</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0327</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.58529321816151</v>
+      </c>
+      <c r="F173" t="n">
+        <v>21.14315659173631</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.0277</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F174" t="n">
+        <v>24.692</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0259</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="F175" t="n">
+        <v>24.634</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.0259</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.5911909526855393</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18.84733035749406</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22.363</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.0286</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="F178" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.6287463476932376</v>
+      </c>
+      <c r="F179" t="n">
+        <v>22.14218554340018</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.0284</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F180" t="n">
+        <v>26.314</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.0293</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="F181" t="n">
+        <v>26.226</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0281</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.6104237012270021</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19.22951300754531</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23.165</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0279</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19.812</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.7013099848460552</v>
+      </c>
+      <c r="F185" t="n">
+        <v>20.9006747951236</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0336</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24.506</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21.112</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0327</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.5985876741814296</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19.51230900594572</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="F189" t="n">
+        <v>25.616</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0296</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F190" t="n">
+        <v>20.501</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0298</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5991847165691488</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19.39780319091058</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0309</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20.024</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.0301</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.0301</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.5724244205133372</v>
+      </c>
+      <c r="F194" t="n">
+        <v>21.17750552156949</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25.493</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0248</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25.254</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0267</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.6147991696562914</v>
+      </c>
+      <c r="F197" t="n">
+        <v>19.09933180089316</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="F198" t="n">
+        <v>22.784</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.0288</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F199" t="n">
+        <v>19.485</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.5843246624529861</v>
+      </c>
+      <c r="F200" t="n">
+        <v>18.42089436065144</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="F201" t="n">
+        <v>22.094</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.0282</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F202" t="n">
+        <v>18.685</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.609579953733097</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19.19709515214286</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0318</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19.514</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F205" t="n">
+        <v>19.513</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.6317974258127574</v>
+      </c>
+      <c r="F206" t="n">
+        <v>19.46626511741167</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.0325</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="F207" t="n">
+        <v>23.507</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.0288</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="F208" t="n">
+        <v>19.684</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.6018881854259107</v>
+      </c>
+      <c r="F209" t="n">
+        <v>19.43035575446434</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="F210" t="n">
+        <v>24.942</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.0303</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="F211" t="n">
+        <v>20.121</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.0304</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.6699844952527944</v>
+      </c>
+      <c r="F212" t="n">
+        <v>21.52511968594068</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.0311</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22.535</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22.085</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.0323</v>
       </c>
     </row>
   </sheetData>
@@ -7663,7 +12879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11270,6 +16486,2616 @@
         <v>0.0265</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.6976279189078626</v>
+      </c>
+      <c r="F125" t="n">
+        <v>33.58843519326601</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0208</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F126" t="n">
+        <v>33.911</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.0209</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="F127" t="n">
+        <v>33.468</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0213</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5980444963728661</v>
+      </c>
+      <c r="F128" t="n">
+        <v>18.97625680156141</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22.446</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0298</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="F130" t="n">
+        <v>18.975</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.581741730973459</v>
+      </c>
+      <c r="F131" t="n">
+        <v>24.69220587951938</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.0236</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F132" t="n">
+        <v>24.979</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0228</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>24.794</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0229</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.6946059798738413</v>
+      </c>
+      <c r="F134" t="n">
+        <v>21.62289004716731</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.0321</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="F135" t="n">
+        <v>25.779</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0309</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F136" t="n">
+        <v>21.911</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0323</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.6310136862758672</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19.33501843615056</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0326</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="F138" t="n">
+        <v>22.748</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F139" t="n">
+        <v>19.396</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.6985108923712158</v>
+      </c>
+      <c r="F140" t="n">
+        <v>21.14003293301068</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25.096</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0305</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21.385</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.0324</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.6361299052745447</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21.7380679862772</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.0293</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="F144" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.0257</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F145" t="n">
+        <v>25.124</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0259</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.6090837569362275</v>
+      </c>
+      <c r="F146" t="n">
+        <v>19.40157809922792</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>25.775</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>25.628</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.6175641872606431</v>
+      </c>
+      <c r="F149" t="n">
+        <v>19.56410779990735</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F150" t="n">
+        <v>24.407</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="F151" t="n">
+        <v>21.023</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.636630255055756</v>
+      </c>
+      <c r="F152" t="n">
+        <v>19.23908396728126</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0331</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22.629</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.0286</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="F154" t="n">
+        <v>19.369</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0321</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.6071352524954821</v>
+      </c>
+      <c r="F155" t="n">
+        <v>21.92529986421925</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0277</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F156" t="n">
+        <v>27.197</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="F157" t="n">
+        <v>27.167</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.5570304735037701</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20.39039941359391</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.0273</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>26.527</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.0251</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="F160" t="n">
+        <v>23.805</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.0263</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.8420995191085844</v>
+      </c>
+      <c r="F161" t="n">
+        <v>26.26619544648063</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.0321</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="F162" t="n">
+        <v>26.328</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0313</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="F163" t="n">
+        <v>26.269</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6211655164056956</v>
+      </c>
+      <c r="F164" t="n">
+        <v>25.11611975610649</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.0247</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="F165" t="n">
+        <v>28.776</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.0226</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="F166" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.0229</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.5831504398313195</v>
+      </c>
+      <c r="F167" t="n">
+        <v>20.85089462014086</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F168" t="n">
+        <v>25.005</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F169" t="n">
+        <v>24.611</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.0275</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.7295203343801877</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22.03137425881699</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.0331</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F171" t="n">
+        <v>27.032</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0331</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="F172" t="n">
+        <v>27.015</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0331</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.58529321816151</v>
+      </c>
+      <c r="F173" t="n">
+        <v>21.14315659173631</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.0277</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F174" t="n">
+        <v>24.692</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0259</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="F175" t="n">
+        <v>25.946</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.0261</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.6043401703070659</v>
+      </c>
+      <c r="F176" t="n">
+        <v>19.19005930984853</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22.813</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.0288</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="F178" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.8041738322267938</v>
+      </c>
+      <c r="F179" t="n">
+        <v>26.38860611908851</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.0305</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="F180" t="n">
+        <v>26.779</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.0296</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="F181" t="n">
+        <v>26.387</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0305</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.6104237012270021</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19.22951300754531</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23.348</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0286</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19.812</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.7013099848460552</v>
+      </c>
+      <c r="F185" t="n">
+        <v>20.9006747951236</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0336</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="F186" t="n">
+        <v>25.123</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0297</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21.149</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0328</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.5985876741814296</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19.51230900594572</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="F189" t="n">
+        <v>26.597</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0311</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F190" t="n">
+        <v>22.395</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5991847165691488</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19.39780319091058</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0309</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="F192" t="n">
+        <v>21.417</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.0303</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F193" t="n">
+        <v>21.294</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.0305</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.5724244205133372</v>
+      </c>
+      <c r="F194" t="n">
+        <v>21.17750552156949</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="F195" t="n">
+        <v>28.433</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0254</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25.254</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0267</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.6282244818823193</v>
+      </c>
+      <c r="F197" t="n">
+        <v>19.51869913723234</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F198" t="n">
+        <v>22.931</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="F199" t="n">
+        <v>19.552</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.5843246624529861</v>
+      </c>
+      <c r="F200" t="n">
+        <v>18.42089436065144</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="F201" t="n">
+        <v>22.262</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.0292</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="F202" t="n">
+        <v>18.686</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.6355039354375207</v>
+      </c>
+      <c r="F203" t="n">
+        <v>19.70833295976126</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0322</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19.514</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0316</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="F205" t="n">
+        <v>19.708</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.0323</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.6317974258127574</v>
+      </c>
+      <c r="F206" t="n">
+        <v>19.46626511741167</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.0325</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="F207" t="n">
+        <v>23.768</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.0294</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="F208" t="n">
+        <v>19.684</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.6018881854259107</v>
+      </c>
+      <c r="F209" t="n">
+        <v>19.43035575446434</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="F210" t="n">
+        <v>26.062</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.0307</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21.368</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.7133061176677786</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22.08503615530167</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.0323</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>URC</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22.535</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>URC Mod</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22.085</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.0323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
